--- a/Classifier results.xlsx
+++ b/Classifier results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sj\Desktop\E-commerce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Classifier</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Recall</t>
+  </si>
+  <si>
+    <t>Iteration 2</t>
   </si>
 </sst>
 </file>
@@ -102,11 +105,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,77 +411,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>0.92876999999999998</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>0.84430000000000005</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>0.77900000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0.92935999999999996</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.876</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.74199999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>0.92500000000000004</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.88900000000000001</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.70699999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>0.90259999999999996</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C5" s="3">
         <v>0.93500000000000005</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0.57899999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.746</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.95599999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.86</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
